--- a/Result_14/Result_1/calendar.xlsx
+++ b/Result_14/Result_1/calendar.xlsx
@@ -571,17 +571,17 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -642,27 +642,27 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
+          <t>Murray McLachlan</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
           <t>Matt Noble</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
-        <is>
-          <t>Tanner Muggli</t>
-        </is>
-      </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="C3" s="4" t="inlineStr"/>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr"/>
@@ -996,17 +996,17 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -1062,32 +1062,32 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>Matt Noble</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
@@ -1177,12 +1177,12 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1482,27 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t>Matt Basinger</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
           <t>Matt Noble</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Tanner Muggli</t>
-        </is>
-      </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
     </row>
@@ -1644,27 +1644,27 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr"/>
@@ -1678,27 +1678,27 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
@@ -1846,22 +1846,22 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1917,27 +1917,27 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t>Matt Basinger</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Matt Basinger</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
           <t>Matt Noble</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Tanner Muggli</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Tanner Muggli</t>
-        </is>
-      </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2027,17 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
     </row>
@@ -2079,17 +2079,17 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G16" s="5" t="inlineStr"/>
@@ -2113,17 +2113,17 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
